--- a/analysis/scorpion/S3 Tables.xlsx
+++ b/analysis/scorpion/S3 Tables.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackgold/Documents/UCLA_phd/Projects/California/General_Channel_Islands/MPA_test_data/ms/plos_one/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackgold/Documents/UCLA_phd/Projects/California/General_Channel_Islands/MPA_test_data/ms/plos_one/Scorpion-SMR-eDNA-Metabarcoding/analysis/scorpion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD39FB0-3D4A-544D-8A05-2950DACF3DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D5D23-4206-0545-B6F6-9056A389CC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36600" yWindow="460" windowWidth="32780" windowHeight="16640" activeTab="9" xr2:uid="{F0DAF9FF-EC08-C24F-ACD4-AF488E2FAD86}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="9" xr2:uid="{F0DAF9FF-EC08-C24F-ACD4-AF488E2FAD86}"/>
   </bookViews>
   <sheets>
-    <sheet name="S1Table" sheetId="11" r:id="rId1"/>
+    <sheet name="S1 Table" sheetId="11" r:id="rId1"/>
     <sheet name="S2 Table" sheetId="12" r:id="rId2"/>
     <sheet name="S3 Table" sheetId="7" r:id="rId3"/>
     <sheet name="S4 Table" sheetId="4" r:id="rId4"/>
@@ -1265,15 +1265,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Supplemental Table 7. List of All Species Observed by the Channel Islands National Park Service Kelp Forest Monitoring Program</t>
-  </si>
-  <si>
-    <t>Supplemental Table 4. Summarized Species Table with Site Level Detections</t>
-  </si>
-  <si>
-    <t>Supplemental Table 6.  Underwater Visual Census Species Detections Across All Sites</t>
-  </si>
-  <si>
     <t>Per Sample</t>
   </si>
   <si>
@@ -1463,33 +1454,12 @@
     <t>Taxonomic Path</t>
   </si>
   <si>
-    <t>Supplemental Table 3.  Metadata for eDNA Samples. Depth and Algae cover from Kelp Forest Monitoring Program 2017 surveys.</t>
-  </si>
-  <si>
-    <t>Supplemental Table 5. Species Detected with eDNA Metabarcoding and NPS Kelp Forest Monitoring Program Underwater Visual Surveys</t>
-  </si>
-  <si>
     <t>Total per site</t>
   </si>
   <si>
     <t>Pay rate</t>
   </si>
   <si>
-    <t>Supplemental Table 9. Budget Estimate of eDNA Metabarcode Sampling</t>
-  </si>
-  <si>
-    <t>Supplemental Table 8. Budget Estimate of eDNA Metabarcode Sampling</t>
-  </si>
-  <si>
-    <t>Supplemental Table 1.  Taxonomy Table After Decontamination and Site Occupancy Modeling. Read Counts. Taxonomic assignments made with FishCARD with Mammal and Avian Identifications from the Combined Database</t>
-  </si>
-  <si>
-    <t>Supplemental Table 1.  Taxonomy Table After Decontamination and Site Occupancy Modeling. Values have been noramlized to eDNA index scores. Taxonomic assignments made with FishCARD with Mammal and Avian Identifications from the Combined Database</t>
-  </si>
-  <si>
-    <t>Supplemental Table 10.  Taxonomy Table After Decontamination Before Site Occupancy Modeling. Read Counts. Taxonomic assignments made with FishCARD with Mammal and Avian Identifications from the Combined Database</t>
-  </si>
-  <si>
     <t>Eukaryota;Chordata;Actinopteri;Scombriformes;Scombridae;Thunnus;Thunnus alalunga</t>
   </si>
   <si>
@@ -1617,6 +1587,36 @@
   </si>
   <si>
     <t>Eukaryota;Chordata;Aves;Galliformes;Phasianidae;Gallus;Gallus gallus</t>
+  </si>
+  <si>
+    <t>S1 Table.  Taxonomy Table After Decontamination and Site Occupancy Modeling. Read Counts. Taxonomic assignments made with FishCARD with Mammal and Avian Identifications from the Combined Database</t>
+  </si>
+  <si>
+    <t>S2 Table.  Taxonomy Table After Decontamination and Site Occupancy Modeling. Values have been noramlized to eDNA index scores. Taxonomic assignments made with FishCARD with Mammal and Avian Identifications from the Combined Database</t>
+  </si>
+  <si>
+    <t>S3 Table.  Metadata for eDNA Samples. Depth and Algae cover from Kelp Forest Monitoring Program 2017 surveys.</t>
+  </si>
+  <si>
+    <t>S4 Table. Summarized Species Table with Site Level Detections</t>
+  </si>
+  <si>
+    <t>S5 Table. Species Detected with eDNA Metabarcoding and NPS Kelp Forest Monitoring Program Underwater Visual Surveys</t>
+  </si>
+  <si>
+    <t>S6 Table.  Underwater Visual Census Species Detections Across All Sites</t>
+  </si>
+  <si>
+    <t>S7 Table. List of All Species Observed by the Channel Islands National Park Service Kelp Forest Monitoring Program</t>
+  </si>
+  <si>
+    <t>S8 Table. Budget Estimate of eDNA Metabarcode Sampling</t>
+  </si>
+  <si>
+    <t>S9 Table. Budget Estimate of eDNA Metabarcode Sampling</t>
+  </si>
+  <si>
+    <t>S10 Table.  Taxonomy Table After Decontamination Before Site Occupancy Modeling. Read Counts. Taxonomic assignments made with FishCARD with Mammal and Avian Identifications from the Combined Database</t>
   </si>
 </sst>
 </file>
@@ -2525,7 +2525,7 @@
   <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2541,12 +2541,12 @@
   <sheetData>
     <row r="1" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>227</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B7" s="2">
         <v>2352</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B11" s="2">
         <v>1705</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B17" s="2">
         <v>593</v>
@@ -6336,7 +6336,7 @@
   <dimension ref="A1:AB135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6352,12 +6352,12 @@
   <sheetData>
     <row r="1" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>227</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B13" s="2">
         <v>2352</v>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B26" s="2">
         <v>1705</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -9881,7 +9881,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -11515,7 +11515,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B64" s="2">
         <v>593</v>
@@ -11945,7 +11945,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -13579,7 +13579,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -13923,7 +13923,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -14009,7 +14009,7 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -14095,7 +14095,7 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -14439,7 +14439,7 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -14697,7 +14697,7 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
@@ -15127,7 +15127,7 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B104" s="2">
         <v>0</v>
@@ -15729,7 +15729,7 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B111" s="2">
         <v>0</v>
@@ -16073,7 +16073,7 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B115" s="2">
         <v>0</v>
@@ -16159,7 +16159,7 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B116" s="2">
         <v>0</v>
@@ -16245,7 +16245,7 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B117" s="2">
         <v>0</v>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B119" s="2">
         <v>0</v>
@@ -16589,7 +16589,7 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B121" s="2">
         <v>0</v>
@@ -16761,7 +16761,7 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B123" s="2">
         <v>0</v>
@@ -16847,7 +16847,7 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B124" s="2">
         <v>0</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B127" s="2">
         <v>0</v>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B128" s="2">
         <v>0</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B132" s="2">
         <v>0</v>
@@ -17793,7 +17793,7 @@
     </row>
     <row r="135" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B135" s="6">
         <v>0</v>
@@ -17903,12 +17903,12 @@
   <sheetData>
     <row r="1" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>227</v>
@@ -18336,7 +18336,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B7" s="2">
         <v>0.24172243649553499</v>
@@ -18680,7 +18680,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B11" s="2">
         <v>0.19375375095251299</v>
@@ -19196,7 +19196,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B17" s="2">
         <v>0.111109299499147</v>
@@ -21698,7 +21698,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21714,7 +21714,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -23311,7 +23311,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23326,15 +23326,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>114</v>
@@ -23354,7 +23354,7 @@
     </row>
     <row r="3" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>108</v>
@@ -23377,7 +23377,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>108</v>
@@ -23400,7 +23400,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>108</v>
@@ -24329,7 +24329,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24343,7 +24343,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
-        <v>472</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -24914,7 +24914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A454C90-BA99-854C-8283-E9190009D028}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24927,7 +24929,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -25211,7 +25213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEEB52E-20A3-A74B-8388-740CCF0FD916}">
   <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25220,7 +25224,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>405</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26674,7 +26678,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26685,20 +26689,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B4">
         <v>291</v>
@@ -26706,7 +26710,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B5" s="58">
         <f>38/60</f>
@@ -26715,7 +26719,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B4</f>
@@ -26724,15 +26728,15 @@
     </row>
     <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B9" s="60">
         <f>114853/60</f>
@@ -26741,7 +26745,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B10" s="59">
         <f>B6/B9</f>
@@ -26750,15 +26754,15 @@
     </row>
     <row r="12" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B13" s="62">
         <f>473000</f>
@@ -26767,7 +26771,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="61" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B14" s="63">
         <f>B13*B10</f>
@@ -26776,7 +26780,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="64" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B15" s="65">
         <f>B14/33</f>
@@ -26793,7 +26797,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26804,23 +26808,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B4" s="41">
         <f>127/15</f>
@@ -26833,7 +26837,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B5" s="41">
         <f>C5/100*2</f>
@@ -26845,7 +26849,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B6" s="41">
         <f>C6/30</f>
@@ -26857,7 +26861,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B7" s="41">
         <f>14/200</f>
@@ -26869,7 +26873,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B8" s="41">
         <f>690/250</f>
@@ -26881,7 +26885,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B9" s="41">
         <f>310/125</f>
@@ -26893,7 +26897,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B10" s="41">
         <f>103/278</f>
@@ -26905,7 +26909,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B11" s="41">
         <f>C11/25</f>
@@ -26917,7 +26921,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B12" s="51">
         <f>165/100</f>
@@ -26930,7 +26934,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="49" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B13" s="48">
         <f>SUM(B4:B12)</f>
@@ -26940,7 +26944,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B14" s="45">
         <f>B13*3</f>
@@ -26950,7 +26954,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B15" s="46">
         <f>B14*3</f>
@@ -26965,18 +26969,18 @@
     </row>
     <row r="17" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B18" s="47">
         <f>C18/3080</f>
@@ -26988,7 +26992,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B19" s="41">
         <f>C19/192</f>
@@ -27000,7 +27004,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B20" s="41">
         <f>C20/12000</f>
@@ -27012,7 +27016,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B21" s="41">
         <f>C21/500</f>
@@ -27024,7 +27028,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B22" s="43">
         <f>SUM(B18:B21)</f>
@@ -27034,7 +27038,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B23" s="48">
         <f>B22*3</f>
@@ -27044,7 +27048,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B24" s="46">
         <f>B23*27</f>
@@ -27059,18 +27063,18 @@
     </row>
     <row r="26" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B27" s="47">
         <f>C27/1262</f>
@@ -27082,7 +27086,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B28" s="47">
         <f>C28/500</f>
@@ -27094,7 +27098,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B29" s="47">
         <v>0.37</v>
@@ -27105,7 +27109,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B30" s="43">
         <f>SUM(B27:B29)</f>
@@ -27114,7 +27118,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B31" s="46">
         <f>B30*27</f>
@@ -27123,18 +27127,18 @@
     </row>
     <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B34" s="41">
         <f>C34/(27+35)</f>
@@ -27146,7 +27150,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B35" s="48">
         <f>B34</f>
@@ -27155,7 +27159,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B36" s="46">
         <f>B35*27</f>
@@ -27164,15 +27168,15 @@
     </row>
     <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="53" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B39" s="21">
         <v>6</v>
@@ -27180,7 +27184,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B40" s="54">
         <v>24</v>
@@ -27188,7 +27192,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B41" s="52">
         <v>15</v>
@@ -27196,7 +27200,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B42" s="52">
         <f>SUM(B40,B39)*B41</f>
@@ -27209,15 +27213,15 @@
     </row>
     <row r="44" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="66" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B45" s="67">
         <v>150</v>
@@ -27225,7 +27229,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B46" s="52">
         <f>B45*3</f>
@@ -27234,7 +27238,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="44" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B48" s="46">
         <f>SUM(B36,B31,B24,B15,B42,B46)</f>
@@ -27243,7 +27247,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B49" s="46">
         <f>B48/3</f>
